--- a/Crawling/music/crawled_data/day_bugs/day_bugs_20220105.xlsx
+++ b/Crawling/music/crawled_data/day_bugs/day_bugs_20220105.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="236">
   <si>
     <t>날짜</t>
   </si>
@@ -34,40 +34,58 @@
     <t>2022-01-05</t>
   </si>
   <si>
+    <t>드라마</t>
+  </si>
+  <si>
     <t>겨울잠</t>
   </si>
   <si>
+    <t>Step Back</t>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+  </si>
+  <si>
+    <t>Dreams Come True</t>
+  </si>
+  <si>
+    <t>정거장</t>
+  </si>
+  <si>
+    <t>러브레터</t>
+  </si>
+  <si>
+    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
+  </si>
+  <si>
+    <t>취중고백</t>
+  </si>
+  <si>
+    <t>Christmas Tree</t>
+  </si>
+  <si>
+    <t>서랍</t>
+  </si>
+  <si>
+    <t>너</t>
+  </si>
+  <si>
+    <t>우리가 헤어져야 했던 이유</t>
+  </si>
+  <si>
+    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>언덕나무</t>
+  </si>
+  <si>
+    <t>Counting Stars (Feat. Beenzino)</t>
+  </si>
+  <si>
     <t>그대 손 놓아요</t>
   </si>
   <si>
-    <t>드라마</t>
-  </si>
-  <si>
-    <t>정거장</t>
-  </si>
-  <si>
-    <t>Dreams Come True</t>
-  </si>
-  <si>
-    <t>ELEVEN</t>
-  </si>
-  <si>
-    <t>러브레터</t>
-  </si>
-  <si>
-    <t>너</t>
-  </si>
-  <si>
-    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
-  </si>
-  <si>
-    <t>취중고백</t>
-  </si>
-  <si>
-    <t>Counting Stars (Feat. Beenzino)</t>
-  </si>
-  <si>
-    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
+    <t>눈이 오잖아(Feat.헤이즈)</t>
   </si>
   <si>
     <t>사랑은 늘 도망가</t>
@@ -76,285 +94,285 @@
     <t>Still I Love You</t>
   </si>
   <si>
-    <t>눈이 오잖아(Feat.헤이즈)</t>
-  </si>
-  <si>
-    <t>Christmas Tree</t>
-  </si>
-  <si>
-    <t>이루리</t>
-  </si>
-  <si>
     <t>strawberry moon</t>
   </si>
   <si>
+    <t>이별후회</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
     <t>만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. TOIL)</t>
   </si>
   <si>
-    <t>우리가 헤어져야 했던 이유</t>
-  </si>
-  <si>
-    <t>Next Level</t>
-  </si>
-  <si>
-    <t>서랍</t>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>너무 아픈 사랑은 사랑이 아니었음을</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
+    <t>신호등</t>
+  </si>
+  <si>
+    <t>문득</t>
   </si>
   <si>
     <t>흰눈</t>
   </si>
   <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>신호등</t>
+    <t>STAY</t>
   </si>
   <si>
     <t>불협화음 (Feat. AKMU) (Prod. GRAY)</t>
   </si>
   <si>
-    <t>사랑은 말로 표현하는게 아니래요</t>
-  </si>
-  <si>
-    <t>문득</t>
-  </si>
-  <si>
-    <t>STAY</t>
-  </si>
-  <si>
-    <t>이별후회</t>
+    <t>네가 없는 밤 (Feat. ASH ISLAND) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>밤새 서로 미루다</t>
+  </si>
+  <si>
+    <t>매일 크리스마스 (Everyday Christmas)</t>
+  </si>
+  <si>
+    <t>SCIENTIST</t>
+  </si>
+  <si>
+    <t>My Universe</t>
+  </si>
+  <si>
+    <t>Butter</t>
   </si>
   <si>
     <t>죽을 만큼 아파서 (Feat. JAMIE (제이미))</t>
   </si>
   <si>
-    <t>다정히 내 이름을 부르면</t>
-  </si>
-  <si>
-    <t>매일 크리스마스 (Everyday Christmas)</t>
-  </si>
-  <si>
-    <t>네가 없는 밤 (Feat. ASH ISLAND) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>밤새 서로 미루다</t>
+    <t>Permission to Dance</t>
+  </si>
+  <si>
+    <t>묘해, 너와</t>
   </si>
   <si>
     <t>낙하 (with 아이유)</t>
   </si>
   <si>
-    <t>Bubble Love (Feat. 솔라 of 마마무)</t>
-  </si>
-  <si>
-    <t>My Universe</t>
-  </si>
-  <si>
-    <t>Butter</t>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>어제 너는 나를 버렸어</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>쉬어 (Feat. MINO) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>라일락</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
   </si>
   <si>
     <t>너를 생각해</t>
   </si>
   <si>
-    <t>To Life</t>
-  </si>
-  <si>
-    <t>Permission to Dance</t>
-  </si>
-  <si>
-    <t>SCIENTIST</t>
-  </si>
-  <si>
-    <t>쉬어 (Feat. MINO) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>Snowman</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>어제 너는 나를 버렸어</t>
-  </si>
-  <si>
-    <t>묘해, 너와</t>
+    <t>OHAYO MY NIGHT</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
+  </si>
+  <si>
+    <t>Queendom</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>Black Mamba</t>
+  </si>
+  <si>
+    <t>낮 밤 (feat. 박재범)</t>
   </si>
   <si>
     <t>[19금]
 Peaches (feat. Daniel Caesar, Giveon)</t>
   </si>
   <si>
-    <t>OHAYO MY NIGHT</t>
-  </si>
-  <si>
-    <t>Shark</t>
-  </si>
-  <si>
-    <t>Queendom</t>
-  </si>
-  <si>
-    <t>너의 모든 순간</t>
+    <t>슈퍼 그럼요</t>
+  </si>
+  <si>
+    <t>바라만 본다</t>
+  </si>
+  <si>
+    <t>너는 내 세상이었어</t>
+  </si>
+  <si>
+    <t>Wake Up (Prod. 코드 쿤스트)</t>
+  </si>
+  <si>
+    <t>Shivers</t>
+  </si>
+  <si>
+    <t>Snowman</t>
+  </si>
+  <si>
+    <t>사랑은 말로 표현하는게 아니래요</t>
+  </si>
+  <si>
+    <t>Hey Mama (feat. Nicki Minaj, Bebe Rexha &amp; Afrojack)</t>
+  </si>
+  <si>
+    <t>Off My Face</t>
+  </si>
+  <si>
+    <t>박하사탕</t>
+  </si>
+  <si>
+    <t>헤픈 우연</t>
+  </si>
+  <si>
+    <t>이루리</t>
+  </si>
+  <si>
+    <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
   </si>
   <si>
     <t>Tiny Riot</t>
   </si>
   <si>
-    <t>바라만 본다</t>
-  </si>
-  <si>
-    <t>Bad Habits</t>
-  </si>
-  <si>
-    <t>Wake Up (Prod. 코드 쿤스트)</t>
-  </si>
-  <si>
-    <t>라일락</t>
-  </si>
-  <si>
-    <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
+    <t>탕!♡</t>
+  </si>
+  <si>
+    <t>Blueming</t>
+  </si>
+  <si>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+  </si>
+  <si>
+    <t>Bubble Love (Feat. 솔라 of 마마무)</t>
+  </si>
+  <si>
+    <t>Killing Me</t>
+  </si>
+  <si>
+    <t>Dun Dun Dance</t>
   </si>
   <si>
     <t>선물을 고르며</t>
   </si>
   <si>
-    <t>낮 밤 (feat. 박재범)</t>
-  </si>
-  <si>
-    <t>Black Mamba</t>
-  </si>
-  <si>
-    <t>탕!♡</t>
-  </si>
-  <si>
-    <t>Hey Mama (feat. Nicki Minaj, Bebe Rexha &amp; Afrojack)</t>
-  </si>
-  <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>Dun Dun Dance</t>
-  </si>
-  <si>
-    <t>너는 내 세상이었어</t>
-  </si>
-  <si>
-    <t>헤픈 우연</t>
+    <t>WA DA DA</t>
+  </si>
+  <si>
+    <t>점점</t>
   </si>
   <si>
     <t>고백</t>
   </si>
   <si>
-    <t>MONEY</t>
-  </si>
-  <si>
-    <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
-  </si>
-  <si>
-    <t>Santa Tell Me</t>
-  </si>
-  <si>
-    <t>Off My Face</t>
-  </si>
-  <si>
     <t>나 그댈위해 시 한편을 쓰겠어</t>
   </si>
   <si>
-    <t>Blueming</t>
-  </si>
-  <si>
-    <t>Shivers</t>
-  </si>
-  <si>
-    <t>Killing Me</t>
-  </si>
-  <si>
-    <t>별의 조각</t>
-  </si>
-  <si>
-    <t>All I Want for Christmas Is You</t>
-  </si>
-  <si>
-    <t>기다리다</t>
-  </si>
-  <si>
-    <t>Easy On Me</t>
-  </si>
-  <si>
-    <t>안녕 우린 헤어져야만 해</t>
-  </si>
-  <si>
-    <t>그 여자</t>
-  </si>
-  <si>
-    <t>점점</t>
-  </si>
-  <si>
-    <t>박하사탕</t>
-  </si>
-  <si>
-    <t>나비효과</t>
-  </si>
-  <si>
-    <t>시작</t>
-  </si>
-  <si>
-    <t>주저하는 연인들을 위해</t>
+    <t>Better</t>
   </si>
   <si>
     <t>[19금]
 abcdefu</t>
   </si>
   <si>
-    <t>크리스마스니까</t>
-  </si>
-  <si>
-    <t>Better</t>
-  </si>
-  <si>
-    <t>I'm a 빛</t>
-  </si>
-  <si>
-    <t>DUMB DUMB</t>
-  </si>
-  <si>
-    <t>희재</t>
+    <t>별의 조각</t>
+  </si>
+  <si>
+    <t>그대와 잠든 나 사이에 (N번째 연애 X 카더가든)</t>
+  </si>
+  <si>
+    <t>안녕 우린 헤어져야만 해</t>
+  </si>
+  <si>
+    <t>Easy On Me</t>
+  </si>
+  <si>
+    <t>Universe (Let's Play Ball)</t>
   </si>
   <si>
     <t>별빛 같은 나의 사랑아</t>
   </si>
   <si>
-    <t>MBTI (Feat. 쿠기 &amp; 로꼬) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>미리 메리 크리스마스 (feat. 천둥 Of MBLAQ)</t>
-  </si>
-  <si>
-    <t>죽도록 사랑해 (Feat. 백아연)</t>
+    <t>나비효과</t>
+  </si>
+  <si>
+    <t>티격태격</t>
+  </si>
+  <si>
+    <t>기다리다</t>
+  </si>
+  <si>
+    <t>Santa Tell Me</t>
+  </si>
+  <si>
+    <t>에잇(Prod.&amp;Feat. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>같은 이유로 우리 또 헤어질까봐</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>Uniform (Feat. pH-1)</t>
+  </si>
+  <si>
+    <t>Weapon (With 뉴니온, 플로어) (Prod. Czaer)</t>
   </si>
   <si>
     <t>아이유(IU)</t>
   </si>
   <si>
+    <t>GOT the beat</t>
+  </si>
+  <si>
+    <t>IVE (아이브)</t>
+  </si>
+  <si>
+    <t>aespa</t>
+  </si>
+  <si>
+    <t>sokodomo</t>
+  </si>
+  <si>
+    <t>김민석 (멜로망스)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>10CM</t>
+  </si>
+  <si>
+    <t>비비(BIBI)</t>
+  </si>
+  <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
     <t>이선희</t>
   </si>
   <si>
-    <t>aespa</t>
-  </si>
-  <si>
-    <t>IVE (아이브)</t>
-  </si>
-  <si>
-    <t>sokodomo</t>
-  </si>
-  <si>
-    <t>김민석 (멜로망스)</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
+    <t>이무진</t>
   </si>
   <si>
     <t>임영웅</t>
@@ -363,31 +381,21 @@
     <t>토요태</t>
   </si>
   <si>
-    <t>이무진</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>우주소녀</t>
+    <t>김나영</t>
   </si>
   <si>
     <t>베이식(Basick)</t>
   </si>
   <si>
-    <t>비비(BIBI)</t>
-  </si>
-  <si>
-    <t>10CM</t>
+    <t>김기태</t>
+  </si>
+  <si>
+    <t>경서예지
+_x000D_
+경서예지</t>
   </si>
   <si>
     <t>먼데이 키즈(Monday Kiz)</t>
-  </si>
-  <si>
-    <t>Mudd the student</t>
-  </si>
-  <si>
-    <t>규현 (KYUHYUN)</t>
   </si>
   <si>
     <t>The Kid LAROI
@@ -395,18 +403,7 @@
 The Kid LAROI</t>
   </si>
   <si>
-    <t>김나영</t>
-  </si>
-  <si>
-    <t>MC몽</t>
-  </si>
-  <si>
-    <t>경서예지
-_x000D_
-경서예지</t>
-  </si>
-  <si>
-    <t>다비치</t>
+    <t>Mudd the student</t>
   </si>
   <si>
     <t>존 박
@@ -414,7 +411,10 @@
 존 박</t>
   </si>
   <si>
-    <t>AKMU(악뮤)</t>
+    <t>다비치</t>
+  </si>
+  <si>
+    <t>TWICE (트와이스)</t>
   </si>
   <si>
     <t>Coldplay(콜드플레이)
@@ -425,13 +425,19 @@
     <t>방탄소년단</t>
   </si>
   <si>
-    <t>주시크 (Joosiq)</t>
-  </si>
-  <si>
-    <t>박재범</t>
-  </si>
-  <si>
-    <t>TWICE (트와이스)</t>
+    <t>MC몽</t>
+  </si>
+  <si>
+    <t>어쿠스틱 콜라보(Acoustic Collabo)</t>
+  </si>
+  <si>
+    <t>AKMU(악뮤)</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>오마이걸(OH MY GIRL)</t>
   </si>
   <si>
     <t>MINO(송민호)
@@ -439,16 +445,7 @@
 MINO(송민호)</t>
   </si>
   <si>
-    <t>Sia(시아)</t>
-  </si>
-  <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
-    <t>어쿠스틱 콜라보(Acoustic Collabo)</t>
-  </si>
-  <si>
-    <t>Justin Bieber(저스틴 비버)</t>
+    <t>주시크 (Joosiq)</t>
   </si>
   <si>
     <t>디핵(D-Hack)
@@ -456,22 +453,31 @@
 디핵(D-Hack)</t>
   </si>
   <si>
-    <t>오마이걸(OH MY GIRL)</t>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>멜로망스(MeloMance)</t>
   </si>
   <si>
     <t>Red Velvet (레드벨벳)</t>
   </si>
   <si>
-    <t>성시경</t>
-  </si>
-  <si>
-    <t>Sam Ryder</t>
+    <t>Ed Sheeran(에드 시런)</t>
+  </si>
+  <si>
+    <t>이영지</t>
+  </si>
+  <si>
+    <t>Justin Bieber(저스틴 비버)</t>
+  </si>
+  <si>
+    <t>우주소녀 쪼꼬미</t>
   </si>
   <si>
     <t>MSG워너비(M.O.M)</t>
   </si>
   <si>
-    <t>Ed Sheeran(에드 시런)</t>
+    <t>볼빨간사춘기</t>
   </si>
   <si>
     <t>개코
@@ -479,49 +485,58 @@
 개코</t>
   </si>
   <si>
-    <t>멜로망스(MeloMance)</t>
+    <t>Sia(시아)</t>
+  </si>
+  <si>
+    <t>규현 (KYUHYUN)</t>
+  </si>
+  <si>
+    <t>David Guetta(데이빗 게타)</t>
+  </si>
+  <si>
+    <t>호형호제(한동근, 김기태)</t>
+  </si>
+  <si>
+    <t>헤이즈(Heize)</t>
+  </si>
+  <si>
+    <t>우주소녀</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>MINO(송민호)</t>
+  </si>
+  <si>
+    <t>폴킴(Paul Kim)</t>
+  </si>
+  <si>
+    <t>청하</t>
   </si>
   <si>
     <t>Zion.T</t>
   </si>
   <si>
-    <t>이영지</t>
-  </si>
-  <si>
-    <t>MINO(송민호)</t>
-  </si>
-  <si>
-    <t>David Guetta(데이빗 게타)</t>
-  </si>
-  <si>
-    <t>폴킴(Paul Kim)</t>
-  </si>
-  <si>
-    <t>볼빨간사춘기</t>
-  </si>
-  <si>
-    <t>헤이즈(Heize)</t>
-  </si>
-  <si>
-    <t>리사(LISA)</t>
-  </si>
-  <si>
-    <t>Ariana Grande(아리아나 그란데)</t>
+    <t>Kep1er (케플러)</t>
+  </si>
+  <si>
+    <t>빅 아이즈(박현규, 안다은)</t>
   </si>
   <si>
     <t>케이시</t>
   </si>
   <si>
-    <t>청하</t>
+    <t>보아 (BoA)</t>
+  </si>
+  <si>
+    <t>GAYLE</t>
   </si>
   <si>
     <t>윤하(Younha/ユンナ)</t>
   </si>
   <si>
-    <t>Mariah Carey(머라이어 캐리)</t>
-  </si>
-  <si>
-    <t>Adele(아델)</t>
+    <t>카더가든</t>
   </si>
   <si>
     <t>전상근
@@ -529,143 +544,154 @@
 전상근</t>
   </si>
   <si>
-    <t>백지영
-_x000D_
-백지영</t>
-  </si>
-  <si>
-    <t>빅 아이즈(박현규, 안다은)</t>
-  </si>
-  <si>
-    <t>호형호제(한동근, 김기태)</t>
-  </si>
-  <si>
-    <t>가호(Gaho)</t>
-  </si>
-  <si>
-    <t>잔나비</t>
-  </si>
-  <si>
-    <t>GAYLE</t>
-  </si>
-  <si>
-    <t>성시경
-_x000D_
-성시경</t>
-  </si>
-  <si>
-    <t>보아 (BoA)</t>
-  </si>
-  <si>
-    <t>화사(Hwa Sa)</t>
-  </si>
-  <si>
-    <t>전소미</t>
+    <t>Adele(아델)</t>
+  </si>
+  <si>
+    <t>NCT U</t>
+  </si>
+  <si>
+    <t>하성운</t>
+  </si>
+  <si>
+    <t>Ariana Grande(아리아나 그란데)</t>
+  </si>
+  <si>
+    <t>김보경 (NEON)</t>
+  </si>
+  <si>
+    <t>STAYC(스테이씨)</t>
+  </si>
+  <si>
+    <t>우원재</t>
+  </si>
+  <si>
+    <t>ITZY (있지)</t>
   </si>
   <si>
     <t>조각집</t>
   </si>
   <si>
+    <t>Dreams Come True - SM STATION</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 2</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.5</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.1</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.2</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 3</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.7</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
     <t>옷소매 붉은 끝동 OST Part.8</t>
   </si>
   <si>
-    <t>Dreams Come True - SM STATION</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 2</t>
-  </si>
-  <si>
-    <t>Counting Stars</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 3</t>
-  </si>
-  <si>
     <t>신사와 아가씨 OST Part.2</t>
   </si>
   <si>
-    <t>그 해 우리는 OST Part.5</t>
+    <t>그 해 우리는 OST Part.4</t>
+  </si>
+  <si>
+    <t>Savage - The 1st Mini Album</t>
+  </si>
+  <si>
+    <t>싱어게인2 - 무명가수전 Episode.5</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Semi Final</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Final</t>
+  </si>
+  <si>
+    <t>Formula of Love: O+T=&lt;3</t>
+  </si>
+  <si>
+    <t>20th Anniversary Edition ‘Dark Hole’</t>
+  </si>
+  <si>
+    <t>Butter / Permission to Dance</t>
+  </si>
+  <si>
+    <t>연애의 발견 (KBS 월화드라마) OST - Part 4</t>
+  </si>
+  <si>
+    <t>NEXT EPISODE</t>
+  </si>
+  <si>
+    <t>Dynamite (DayTime Version)</t>
+  </si>
+  <si>
+    <t>The 3rd EP</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 1</t>
+  </si>
+  <si>
+    <t>IU 5th Album 'LILAC'</t>
+  </si>
+  <si>
+    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+  </si>
+  <si>
+    <t>Queendom - The 6th Mini Album</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>MSG워너비 1집</t>
+  </si>
+  <si>
+    <t>Butterfly Effect</t>
+  </si>
+  <si>
+    <t>Everyday Is Christmas (Snowman Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>사랑은 말로 표현하는게 아니래요 (규현 X soundtrack#1)</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>싱어게인2 - 무명가수전 Episode.4</t>
+  </si>
+  <si>
+    <t>HAPPEN</t>
   </si>
   <si>
     <t>As You Wish</t>
   </si>
   <si>
-    <t>그 해 우리는 OST Part.2</t>
-  </si>
-  <si>
-    <t>그 해 우리는 OST Part.1</t>
-  </si>
-  <si>
-    <t>Savage - The 1st Mini Album</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Semi Final</t>
-  </si>
-  <si>
-    <t>사랑은 말로 표현하는게 아니래요 (규현 X soundtrack#1)</t>
-  </si>
-  <si>
-    <t>Bipolar</t>
-  </si>
-  <si>
-    <t>그 해 우리는 OST Part.4</t>
-  </si>
-  <si>
-    <t>20th Anniversary Edition ‘Dark Hole’</t>
-  </si>
-  <si>
-    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Final</t>
-  </si>
-  <si>
-    <t>NEXT EPISODE</t>
-  </si>
-  <si>
-    <t>Butter / Permission to Dance</t>
-  </si>
-  <si>
-    <t>Formula of Love: O+T=&lt;3</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 1</t>
-  </si>
-  <si>
-    <t>IU 5th Album 'LILAC'</t>
-  </si>
-  <si>
-    <t>Everyday Is Christmas (Snowman Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Dynamite (DayTime Version)</t>
-  </si>
-  <si>
-    <t>The 3rd EP</t>
-  </si>
-  <si>
-    <t>연애의 발견 (KBS 월화드라마) OST - Part 4</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>Queendom - The 6th Mini Album</t>
-  </si>
-  <si>
-    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+    <t>항해</t>
   </si>
   <si>
     <t>The Sun’s Gonna Rise</t>
   </si>
   <si>
-    <t>MSG워너비 1집</t>
-  </si>
-  <si>
     <t>"TO INFINITY."</t>
   </si>
   <si>
-    <t>Listen</t>
+    <t>Love poem</t>
   </si>
   <si>
     <t>'키스 먼저 할까요?' OST Part.3</t>
@@ -674,67 +700,46 @@
     <t>Dear OHMYGIRL</t>
   </si>
   <si>
-    <t>Butterfly Effect</t>
-  </si>
-  <si>
-    <t>HAPPEN</t>
+    <t>FIRST IMPACT</t>
   </si>
   <si>
     <t>세 번째 '고백'</t>
   </si>
   <si>
-    <t>LALISA</t>
-  </si>
-  <si>
-    <t>항해</t>
+    <t>옛이야기</t>
+  </si>
+  <si>
+    <t>BETTER – The 10th Album</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>YOUNHA 6th Album 'END THEORY'</t>
+  </si>
+  <si>
+    <t>Universe - The 3rd Album</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.3</t>
+  </si>
+  <si>
+    <t>Audition (Time2Rock)</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Tell Me </t>
   </si>
   <si>
-    <t>옛이야기</t>
-  </si>
-  <si>
-    <t>Love poem</t>
-  </si>
-  <si>
-    <t>YOUNHA 6th Album 'END THEORY'</t>
-  </si>
-  <si>
-    <t>Merry Christmas (Deluxe Anniversary Edition)</t>
-  </si>
-  <si>
-    <t>Audition (Time2Rock)</t>
-  </si>
-  <si>
-    <t>비긴어게인 오픈마이크 EPISODE. 25</t>
-  </si>
-  <si>
-    <t>싱어게인2 - 무명가수전 Episode.4</t>
-  </si>
-  <si>
-    <t>이태원 클라쓰 OST Part.2</t>
-  </si>
-  <si>
-    <t>전설</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
-  </si>
-  <si>
-    <t>Jelly Christmas 2012 HEART PROJECT</t>
-  </si>
-  <si>
-    <t>BETTER – The 10th Album</t>
-  </si>
-  <si>
-    <t>Guilty Pleasure</t>
-  </si>
-  <si>
-    <t>국화꽃 향기: 희재 (Scent Of Love)</t>
-  </si>
-  <si>
-    <t>Real</t>
+    <t>에잇</t>
+  </si>
+  <si>
+    <t>STAYDOM</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>스트릿댄스 걸스 파이터 (SGF) Special</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1134,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1143,10 +1148,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1160,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1177,10 +1182,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1194,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1211,10 +1216,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1231,7 +1236,7 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1245,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1262,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1279,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1296,10 +1301,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1313,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1330,10 +1335,10 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1347,10 +1352,10 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1364,10 +1369,10 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1381,10 +1386,10 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1401,7 +1406,7 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1415,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -1432,10 +1437,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1449,10 +1454,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1466,7 +1471,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -1483,10 +1488,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1500,7 +1505,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1517,10 +1522,10 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1534,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1551,10 +1556,10 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1568,10 +1573,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1585,10 +1590,10 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1602,10 +1607,10 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1622,7 +1627,7 @@
         <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1639,7 +1644,7 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1656,7 +1661,7 @@
         <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1670,10 +1675,10 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1687,10 +1692,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,7 +1729,7 @@
         <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1738,10 +1743,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1755,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1772,10 +1777,10 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1789,10 +1794,10 @@
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1809,7 +1814,7 @@
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1823,10 +1828,10 @@
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1840,10 +1845,10 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1857,10 +1862,10 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1874,10 +1879,10 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1894,7 +1899,7 @@
         <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1911,7 +1916,7 @@
         <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1925,10 +1930,10 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1942,10 +1947,10 @@
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1962,7 +1967,7 @@
         <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1979,7 +1984,7 @@
         <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1996,7 +2001,7 @@
         <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,7 +2035,7 @@
         <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2046,8 +2051,9 @@
       <c r="D56" t="s">
         <v>144</v>
       </c>
-      <c r="E56" t="s">
-        <v>205</v>
+      <c r="E56">
+        <f/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2061,10 +2067,10 @@
         <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2078,10 +2084,10 @@
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2095,98 +2101,98 @@
         <v>63</v>
       </c>
       <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
         <v>147</v>
       </c>
-      <c r="E59">
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64">
         <f/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>5</v>
@@ -2198,10 +2204,10 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2218,7 +2224,7 @@
         <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2235,7 +2241,7 @@
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2249,10 +2255,10 @@
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2266,10 +2272,10 @@
         <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2286,7 +2292,7 @@
         <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2303,7 +2309,7 @@
         <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2317,10 +2323,10 @@
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2337,7 +2343,7 @@
         <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2351,10 +2357,10 @@
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2368,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2385,10 +2391,10 @@
         <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2402,10 +2408,10 @@
         <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2419,10 +2425,10 @@
         <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2436,11 +2442,10 @@
         <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79">
-        <f/>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2454,7 +2459,7 @@
         <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
         <v>84</v>
@@ -2471,10 +2476,10 @@
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2488,10 +2493,10 @@
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2505,10 +2510,10 @@
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2522,10 +2527,10 @@
         <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2539,10 +2544,10 @@
         <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2556,10 +2561,10 @@
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2573,10 +2578,10 @@
         <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2590,10 +2595,10 @@
         <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2607,10 +2612,10 @@
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2624,10 +2629,10 @@
         <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2641,10 +2646,10 @@
         <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2658,10 +2663,10 @@
         <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2675,10 +2680,10 @@
         <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2709,7 +2714,7 @@
         <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
         <v>230</v>
@@ -2726,10 +2731,10 @@
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2743,10 +2748,10 @@
         <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2760,7 +2765,7 @@
         <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>102</v>
@@ -2777,10 +2782,10 @@
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2794,10 +2799,10 @@
         <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2811,10 +2816,10 @@
         <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
